--- a/relatorios/repasses_liberados/dentistas/05201966438/2023-08-25_relatorio_repasses_05201966438.xlsx
+++ b/relatorios/repasses_liberados/dentistas/05201966438/2023-08-25_relatorio_repasses_05201966438.xlsx
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N12">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1173,10 +1173,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1217,10 +1217,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>6.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1261,10 +1261,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N17">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1305,10 +1305,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N18">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1613,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N25">
         <v>0</v>
